--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\Dropbox\4. Work in progress\SonoVerse\SonoVerse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA63007-948A-40BD-983F-FA8769195D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD447040-1287-4C41-BD0D-C7BB0A882E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12516" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Term</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>Thyroid</t>
-  </si>
-  <si>
     <t>Lymph nodes</t>
   </si>
   <si>
@@ -133,6 +130,15 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Try folder</t>
+  </si>
+  <si>
+    <t>Complete try</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -496,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -507,10 +513,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -543,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -551,10 +557,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,40 +568,40 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -614,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -636,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,10 +661,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD447040-1287-4C41-BD0D-C7BB0A882E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ABAE09-19C2-48D9-867B-F6FA5112F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Term</t>
   </si>
@@ -130,15 +130,6 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
-  </si>
-  <si>
-    <t>Try</t>
-  </si>
-  <si>
-    <t>Try folder</t>
-  </si>
-  <si>
-    <t>Complete try</t>
   </si>
 </sst>
 </file>
@@ -456,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,20 +650,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ABAE09-19C2-48D9-867B-F6FA5112F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE7C96-00B4-4F4B-B22C-2A1D30FEA2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Term</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Try one</t>
   </si>
 </sst>
 </file>
@@ -447,11 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,6 +656,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="A2:A17"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE7C96-00B4-4F4B-B22C-2A1D30FEA2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240A94B-EB26-4BC1-897E-8D0D28E65A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Term</t>
   </si>
@@ -130,12 +130,6 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
-  </si>
-  <si>
-    <t>Try</t>
-  </si>
-  <si>
-    <t>Try one</t>
   </si>
 </sst>
 </file>
@@ -453,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,14 +650,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="A2:A17"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240A94B-EB26-4BC1-897E-8D0D28E65A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C996C-E750-4EA6-BFE3-5C664A058AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Term</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
+  </si>
+  <si>
+    <t>Try</t>
   </si>
 </sst>
 </file>
@@ -447,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,6 +653,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="A2:A17"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C996C-E750-4EA6-BFE3-5C664A058AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E94C0-44C7-4D7F-BF8E-36C034F24F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Term</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
-  </si>
-  <si>
-    <t>Try</t>
   </si>
 </sst>
 </file>
@@ -450,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,14 +650,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="A2:A17"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E94C0-44C7-4D7F-BF8E-36C034F24F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D51996-C78C-43D3-A79F-6D5C697B0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Term</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
+  </si>
+  <si>
+    <t>try</t>
   </si>
 </sst>
 </file>
@@ -447,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,6 +653,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition ref="A2:A17"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D51996-C78C-43D3-A79F-6D5C697B0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C918549-7139-4F0A-9A2D-F92BC896CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Neuroendocrine tumor G1</t>
   </si>
   <si>
-    <t>try</t>
+    <t>try1</t>
   </si>
 </sst>
 </file>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C918549-7139-4F0A-9A2D-F92BC896CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E0163-8E7B-4629-A58A-75AAAA7F9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Neuroendocrine tumor G1</t>
   </si>
   <si>
-    <t>try1</t>
+    <t>try1,2</t>
   </si>
 </sst>
 </file>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E0163-8E7B-4629-A58A-75AAAA7F9EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46DA5C-BE42-433A-9834-AC50C8BF90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Neuroendocrine tumor G1</t>
   </si>
   <si>
-    <t>try1,2</t>
+    <t>try1,2,3</t>
   </si>
 </sst>
 </file>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46DA5C-BE42-433A-9834-AC50C8BF90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FB73F-C98C-4F9B-8AB3-93E02633C159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Neuroendocrine tumor G1</t>
   </si>
   <si>
-    <t>try1,2,3</t>
+    <t>try1,2,3,4</t>
   </si>
 </sst>
 </file>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94FB73F-C98C-4F9B-8AB3-93E02633C159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4434B46-2102-44F9-8072-77CCD1A16B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Term</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Coming soon</t>
   </si>
   <si>
-    <t>Clip 2 B-mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adenomyomatosis </t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
-  </si>
-  <si>
-    <t>try1,2,3,4</t>
   </si>
 </sst>
 </file>
@@ -450,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -507,10 +501,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -518,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -543,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -551,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -562,32 +556,32 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +597,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -611,13 +605,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,45 +619,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4434B46-2102-44F9-8072-77CCD1A16B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844756AB-245A-40F2-8453-5C7B41FAFE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Term</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Neuroendocrine tumor G1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zxTC0YBY2RY</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +459,7 @@
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="64.21875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,6 +497,9 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844756AB-245A-40F2-8453-5C7B41FAFE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A4211-4025-41EF-BA23-D3E41119B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Term</t>
   </si>
@@ -129,17 +129,28 @@
     <t>Neuroendocrine tumor G1</t>
   </si>
   <si>
-    <t>https://youtu.be/zxTC0YBY2RY</t>
+    <t xml:space="preserve">https://youtu.be/zxTC0YBY2RY </t>
+  </si>
+  <si>
+    <t>https://youtu.be/rg0sFcu0rVQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,13 +173,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,9 +463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +512,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -566,6 +580,9 @@
       </c>
       <c r="C9" t="s">
         <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,6 +663,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
     <sortCondition ref="A2:A16"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A4211-4025-41EF-BA23-D3E41119B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9941A-ADCF-45F6-8AD7-65A629EE2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11772" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Term</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Liver vascular</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatocellular adenoma HNF 1 alpha mutated - Hyperechoic </t>
-  </si>
-  <si>
     <t>Focal nodular hyperplasia - Isoechoic</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>https://youtu.be/rg0sFcu0rVQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/91M82AIMyu0</t>
+  </si>
+  <si>
+    <t>HNF1α-mutated hepatocellular adenoma - Hyperechoic</t>
   </si>
 </sst>
 </file>
@@ -463,9 +466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -532,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -565,10 +568,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -576,13 +582,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -601,7 +607,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -620,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -631,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -642,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9941A-ADCF-45F6-8AD7-65A629EE2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB39DC-65EE-4664-A55D-AABF65AA368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11772" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Term</t>
   </si>
@@ -132,10 +132,13 @@
     <t>https://youtu.be/rg0sFcu0rVQ</t>
   </si>
   <si>
-    <t>https://youtu.be/91M82AIMyu0</t>
-  </si>
-  <si>
     <t>HNF1α-mutated hepatocellular adenoma - Hyperechoic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/xBfd04F4Ni8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/91M82AIMyu0 </t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,13 +571,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -630,6 +633,9 @@
       </c>
       <c r="C13" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,6 +677,8 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB39DC-65EE-4664-A55D-AABF65AA368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDEDF6-F50C-4641-A785-CD6A34AD74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11772" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Term</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Clip 1 B-mode</t>
   </si>
   <si>
-    <t>Calcification with shadow cone</t>
-  </si>
-  <si>
     <t>Metastasis target-like</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/91M82AIMyu0 </t>
+  </si>
+  <si>
+    <t>Splenic calcification with posterior shadowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/qushjTAy6XQ </t>
   </si>
 </sst>
 </file>
@@ -469,9 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,43 +505,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -560,10 +563,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,65 +588,65 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -651,13 +654,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,10 +668,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -679,6 +685,7 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDEDF6-F50C-4641-A785-CD6A34AD74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF7A8E-3256-4FB5-A98B-16A1C4A058FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11772" yWindow="960" windowWidth="11268" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Term</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Spontaneous portosystemic shunt</t>
   </si>
   <si>
-    <t>Neuroendocrine tumor G1</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://youtu.be/zxTC0YBY2RY </t>
   </si>
   <si>
@@ -142,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/qushjTAy6XQ </t>
+  </si>
+  <si>
+    <t>Neuroendocrine Tumor G1 – Hypoechoic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/pc-vbxSRTbs </t>
   </si>
 </sst>
 </file>
@@ -472,9 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,13 +577,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,10 +660,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,13 +674,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +692,7 @@
     <hyperlink ref="D13" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
     <hyperlink ref="D16" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF7A8E-3256-4FB5-A98B-16A1C4A058FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF9C79-54E1-4523-B588-1B246CA841DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Term</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Clip 1 B-mode + Color</t>
   </si>
   <si>
-    <t>Liver vascular</t>
-  </si>
-  <si>
     <t>Focal nodular hyperplasia - Isoechoic</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/pc-vbxSRTbs </t>
+  </si>
+  <si>
+    <t>Liver vasculature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/DjI1kEnzfSQ </t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -577,13 +580,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,18 +594,18 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -610,13 +613,16 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -635,13 +641,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -660,13 +666,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,13 +680,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -693,6 +699,7 @@
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
     <hyperlink ref="D16" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D15" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF9C79-54E1-4523-B588-1B246CA841DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB09F4-2348-4B59-B141-2EB77749719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Term</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Adrenal adenoma</t>
   </si>
   <si>
-    <t>Acute pancreatitis - parenchymal edema</t>
-  </si>
-  <si>
     <t>Intrahepatic bile ducts mild dilatation</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/DjI1kEnzfSQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute necrotizing pancreatitis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/JvwODCASLYQ </t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -580,13 +583,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,12 +603,12 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -614,15 +617,15 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -647,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,10 +658,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -666,13 +672,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -680,13 +686,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -700,6 +706,7 @@
     <hyperlink ref="D16" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D15" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB09F4-2348-4B59-B141-2EB77749719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B597314-BA76-401F-AFEA-E1441FFDF3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Term</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Intrahepatic bile ducts mild dilatation</t>
   </si>
   <si>
-    <t>Spontaneous portosystemic shunt</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://youtu.be/zxTC0YBY2RY </t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/JvwODCASLYQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/U3ydTsRwxok </t>
+  </si>
+  <si>
+    <t>Spontaneous intrahepatic porto-systemic shunt</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,13 +586,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,12 +606,12 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -617,18 +620,21 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -650,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,13 +664,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,13 +678,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -707,6 +713,7 @@
     <hyperlink ref="D15" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
     <hyperlink ref="D14" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B597314-BA76-401F-AFEA-E1441FFDF3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CC894-1331-4D93-A4B6-696EA1B24B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Term</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Spontaneous intrahepatic porto-systemic shunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatocellular carcinoma - Heterogeneous nodular lesions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/15o_Km86IzM </t>
   </si>
 </sst>
 </file>
@@ -482,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,16 +617,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -628,49 +634,49 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,42 +684,57 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8CC894-1331-4D93-A4B6-696EA1B24B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAECDB4-2153-4C72-8112-9E03394313C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Term</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/15o_Km86IzM </t>
+  </si>
+  <si>
+    <t>Perihepatic reactive lymph nodes</t>
+  </si>
+  <si>
+    <t>Clip 1-Bmode</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kaROVVBl9Bc</t>
   </si>
 </sst>
 </file>
@@ -488,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,16 +640,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,49 +657,49 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,42 +707,56 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAECDB4-2153-4C72-8112-9E03394313C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E6A4F-1C20-4856-9E00-183E91BF76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Term</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>https://youtu.be/kaROVVBl9Bc</t>
+  </si>
+  <si>
+    <t>Accessory spleen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/_FckFwJwynI </t>
   </si>
 </sst>
 </file>
@@ -497,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,6 +750,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
     <sortCondition ref="A2:A18"/>
@@ -758,6 +778,7 @@
     <hyperlink ref="D16" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D13" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E6A4F-1C20-4856-9E00-183E91BF76DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5213CF-8443-41D8-9BDB-5E46EFBA6662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Term</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/_FckFwJwynI </t>
+  </si>
+  <si>
+    <t>Stones in the Main Pancreatic Duct (Pancreatolithiasis)</t>
+  </si>
+  <si>
+    <t>Clip 1 B-mdoe + Color</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Axbee4vjNtU</t>
   </si>
 </sst>
 </file>
@@ -503,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,16 +747,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,30 +764,45 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-    <sortCondition ref="A2:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
     <hyperlink ref="D15" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D18" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D17" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D12" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
     <hyperlink ref="D16" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D13" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5213CF-8443-41D8-9BDB-5E46EFBA6662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B219F-C0CB-44DB-A3E7-9931590C83B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Term</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Stones in the Main Pancreatic Duct (Pancreatolithiasis)</t>
-  </si>
-  <si>
-    <t>Clip 1 B-mdoe + Color</t>
   </si>
   <si>
     <t>https://youtu.be/Axbee4vjNtU</t>
@@ -516,7 +513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,10 +750,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B219F-C0CB-44DB-A3E7-9931590C83B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F817CAE-016E-4DB1-BCA4-03E8F65094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Term</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>https://youtu.be/Axbee4vjNtU</t>
+  </si>
+  <si>
+    <t>Cavernous Hemangioma - Iso-Hyperechoic, Trilobulated</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RhSUFLTmTl4</t>
   </si>
 </sst>
 </file>
@@ -509,11 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,16 +672,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,49 +689,49 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -733,13 +739,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,27 +753,27 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -775,31 +781,46 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D20" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F817CAE-016E-4DB1-BCA4-03E8F65094EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D182C5-6751-451A-B8D5-00D111945B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Term</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Kidney and urinary tract</t>
-  </si>
-  <si>
     <t>Spleen</t>
   </si>
   <si>
@@ -187,13 +184,25 @@
   </si>
   <si>
     <t>https://youtu.be/RhSUFLTmTl4</t>
+  </si>
+  <si>
+    <t>Urinary tract</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Renal stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/2kRZcpi70Aw </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,9 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -515,11 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,68 +568,71 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,13 +640,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,13 +665,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,13 +679,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,49 +693,55 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,102 +749,111 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition ref="A2:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D20" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D17" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D21" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D182C5-6751-451A-B8D5-00D111945B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DB855-27C8-4F88-831A-D0C3F2EFEF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Term</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/2kRZcpi70Aw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congestive Hepatopathy </t>
+  </si>
+  <si>
+    <t>Clip 1-Bmode + Color Doppler</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sRu_NTopG3Y</t>
   </si>
 </sst>
 </file>
@@ -533,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,38 +755,38 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -785,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -799,27 +808,27 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -827,31 +836,45 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D17" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D21" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D19" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
   </hyperlinks>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DB855-27C8-4F88-831A-D0C3F2EFEF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE16DA2-736B-4A08-8960-40DDCA9355C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Term</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>https://youtu.be/sRu_NTopG3Y</t>
+  </si>
+  <si>
+    <t>Thyroid</t>
+  </si>
+  <si>
+    <t>Isoechoic nodule with peripheral calcifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/z_oaRVxRz5s </t>
   </si>
 </sst>
 </file>
@@ -542,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,6 +866,20 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -877,6 +900,7 @@
     <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE16DA2-736B-4A08-8960-40DDCA9355C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073FC08-9977-4D98-B539-D8F3E7B6A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Term</t>
   </si>
@@ -84,12 +84,6 @@
     <t xml:space="preserve">Clip 1 B-mode + Color </t>
   </si>
   <si>
-    <t>Biliary hamartomatosis</t>
-  </si>
-  <si>
-    <t>Clip 1 B-mode (Convex and Linear probe)</t>
-  </si>
-  <si>
     <t>Clip 1 B-mode + Color + microV</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/z_oaRVxRz5s </t>
+  </si>
+  <si>
+    <t>https://youtu.be/knQhiK4Y7kY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biliary Hamartomas (von Meyenburg Complexes) </t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,46 +611,46 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,10 +658,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -669,13 +672,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,10 +703,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,55 +728,55 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -803,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -817,13 +820,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -831,13 +834,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -845,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,27 +862,27 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -889,17 +892,17 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
     <hyperlink ref="D18" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
     <hyperlink ref="D22" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D20" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
     <hyperlink ref="D19" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
     <hyperlink ref="D23" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
     <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
     <hyperlink ref="D24" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073FC08-9977-4D98-B539-D8F3E7B6A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D75CD7-5ECE-4D75-96BE-4A89BF9E84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>Term</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t xml:space="preserve">Biliary Hamartomas (von Meyenburg Complexes) </t>
+  </si>
+  <si>
+    <t>https://youtu.be/dGOyCO-pP4g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid Renal Mass </t>
   </si>
 </sst>
 </file>
@@ -551,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,24 +639,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,13 +667,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,13 +678,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,13 +692,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,13 +706,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,13 +720,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,27 +734,27 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,13 +762,13 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,49 +776,49 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,27 +840,27 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,48 +868,62 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D18" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D20" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D19" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D22" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D75CD7-5ECE-4D75-96BE-4A89BF9E84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073145D0-5DC3-4B38-8596-6F36E0E55295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Term</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">Solid Renal Mass </t>
+  </si>
+  <si>
+    <t>Aerobilia (Pneumobilia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/K2Wbg7BgXy4 </t>
   </si>
 </sst>
 </file>
@@ -557,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,52 +631,55 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,13 +687,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -692,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -706,13 +712,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -720,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,27 +754,27 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -776,13 +782,13 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,49 +796,49 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,13 +846,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -854,27 +860,27 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -882,48 +888,63 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D25" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D26" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073145D0-5DC3-4B38-8596-6F36E0E55295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A8B78-C5CD-4394-82CD-ECBD10462900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Term</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Spleen</t>
   </si>
   <si>
-    <t>Ureteral jets</t>
-  </si>
-  <si>
     <t>Clip 1 B-mode</t>
   </si>
   <si>
-    <t>Metastasis target-like</t>
-  </si>
-  <si>
     <t>Gallbladder and biliary tract</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t xml:space="preserve">Adenomyomatosis </t>
   </si>
   <si>
-    <t xml:space="preserve">Clip 1 B-mode </t>
-  </si>
-  <si>
     <t xml:space="preserve">Clip 1 B-mode + Color </t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Adrenal adenoma</t>
   </si>
   <si>
-    <t>Intrahepatic bile ducts mild dilatation</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://youtu.be/zxTC0YBY2RY </t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>https://youtu.be/RhSUFLTmTl4</t>
   </si>
   <si>
-    <t>Urinary tract</t>
-  </si>
-  <si>
     <t>Kidney</t>
   </si>
   <si>
@@ -226,6 +211,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/K2Wbg7BgXy4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horseshoe Kidney </t>
+  </si>
+  <si>
+    <t>https://youtu.be/wBfm-OnoUD4</t>
   </si>
 </sst>
 </file>
@@ -563,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,74 +589,77 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
@@ -673,13 +667,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -687,10 +684,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,13 +712,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,211 +740,183 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D24" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D26" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
-    <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D22" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A8B78-C5CD-4394-82CD-ECBD10462900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AFE8A-0DDA-4E49-8B0A-6D1E7244858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Term</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>https://youtu.be/wBfm-OnoUD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver Steatosis with Geographic Pattern </t>
+  </si>
+  <si>
+    <t>https://youtu.be/m_H0po7LaIo</t>
   </si>
 </sst>
 </file>
@@ -554,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,16 +757,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,13 +774,13 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,49 +788,49 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,27 +852,27 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,48 +880,62 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D18" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D22" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D20" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D19" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D22" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AFE8A-0DDA-4E49-8B0A-6D1E7244858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE750677-8125-4137-B7A7-25AF52340937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Term</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>https://youtu.be/m_H0po7LaIo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholesterol Crystals in Intrahepatic Bile Ducts </t>
+  </si>
+  <si>
+    <t>https://youtu.be/OvAeGcBZ--s</t>
   </si>
 </sst>
 </file>
@@ -560,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,30 +637,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -662,27 +668,27 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -690,13 +696,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -704,13 +710,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -718,13 +724,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,13 +738,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,27 +766,27 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -788,13 +794,13 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -802,49 +808,49 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,13 +858,13 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,27 +872,27 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,48 +900,62 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D21" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D25" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D26" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE750677-8125-4137-B7A7-25AF52340937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BA863-41C4-468C-BE86-D0827046ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>Term</t>
   </si>
@@ -180,9 +180,6 @@
     <t xml:space="preserve">Congestive Hepatopathy </t>
   </si>
   <si>
-    <t>Clip 1-Bmode + Color Doppler</t>
-  </si>
-  <si>
     <t>https://youtu.be/sRu_NTopG3Y</t>
   </si>
   <si>
@@ -229,6 +226,15 @@
   </si>
   <si>
     <t>https://youtu.be/OvAeGcBZ--s</t>
+  </si>
+  <si>
+    <t>Clip 1 B-mode + Color Doppler</t>
+  </si>
+  <si>
+    <t>Clip 2 B-mode + Color</t>
+  </si>
+  <si>
+    <t>https://youtu.be/A3XUYC74J0o</t>
   </si>
 </sst>
 </file>
@@ -566,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -640,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -668,13 +674,13 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,13 +688,13 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,13 +772,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,13 +786,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,46 +831,46 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,27 +892,27 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,48 +920,62 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D24" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D16" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D26" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D27" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BA863-41C4-468C-BE86-D0827046ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2A306-CE57-4C6E-A5A5-80975342CE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Term</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>https://youtu.be/A3XUYC74J0o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atypical Hemangioma - Hyperechoic with Central Hypoechoic Core </t>
+  </si>
+  <si>
+    <t>https://youtu.be/131PwPyQ9TQ</t>
   </si>
 </sst>
 </file>
@@ -572,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,13 +778,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -786,27 +792,27 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -828,13 +834,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -842,49 +848,49 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -892,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,27 +912,27 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,48 +940,62 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D21" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D26" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D26" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D24" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D27" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2A306-CE57-4C6E-A5A5-80975342CE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B334D3-61A0-49B6-AE40-C3EF3BA889AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Term</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>https://youtu.be/131PwPyQ9TQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focal nodular hyperplasia - Isoechoic </t>
+  </si>
+  <si>
+    <t>Clip 2 B-mode + Color + microV</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PGVchRMB22g</t>
   </si>
 </sst>
 </file>
@@ -578,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,13 +745,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -750,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -792,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,27 +815,27 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,13 +843,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,13 +857,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,49 +871,49 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -912,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -926,27 +935,27 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -954,48 +963,62 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D22" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D26" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D24" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D23" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D18" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D27" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D18" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D19" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D28" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D28" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D29" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B334D3-61A0-49B6-AE40-C3EF3BA889AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C8096-ADB8-44D1-8D0E-A4F620AE8F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Term</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>https://youtu.be/PGVchRMB22g</t>
+  </si>
+  <si>
+    <t>Clip 1  B-mode + Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budd-Chiari Syndrome – Intrahepatic Collateral Veins </t>
+  </si>
+  <si>
+    <t>https://youtu.be/WBORcFlYQZE</t>
   </si>
 </sst>
 </file>
@@ -587,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,38 +905,38 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -935,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,27 +958,27 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,48 +986,62 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
-    <sortCondition ref="A2:A27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D23" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D24" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D27" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D25" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D18" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D24" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D25" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D19" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D28" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D29" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D14" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D29" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D30" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3C8096-ADB8-44D1-8D0E-A4F620AE8F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47253BF-2059-43F0-BF79-1E9C6B99ACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Term</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>https://youtu.be/WBORcFlYQZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenomyoma </t>
+  </si>
+  <si>
+    <t>Clip 1 B-mode + color + microV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/ZXwd0gwHEkQ </t>
   </si>
 </sst>
 </file>
@@ -596,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,13 +651,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -656,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -670,41 +679,41 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,27 +721,27 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,13 +749,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,13 +763,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,13 +805,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,13 +819,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -824,13 +833,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,27 +847,27 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -866,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -880,13 +889,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,13 +903,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,49 +917,49 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -958,13 +967,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,27 +981,27 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,49 +1009,64 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition ref="A2:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition ref="A2:A29"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D28" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D26" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D18" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D25" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D19" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D29" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D27" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D30" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D29" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D26" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D20" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D30" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47253BF-2059-43F0-BF79-1E9C6B99ACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE0E63-C1BF-47B9-86FC-5AE122B71E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Term</t>
   </si>
@@ -264,10 +264,13 @@
     <t xml:space="preserve">Adenomyoma </t>
   </si>
   <si>
-    <t>Clip 1 B-mode + color + microV</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://youtu.be/ZXwd0gwHEkQ </t>
+  </si>
+  <si>
+    <t>Chronic pancreatitis</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VJdnjrAAO-4</t>
   </si>
 </sst>
 </file>
@@ -605,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,10 +657,10 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1006,16 +1009,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,50 +1026,65 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition ref="A2:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
     <hyperlink ref="D25" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D29" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D30" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D27" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D19" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
     <hyperlink ref="D26" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D20" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D13" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D30" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D31" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
     <hyperlink ref="D28" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D15" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D31" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D32" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE0E63-C1BF-47B9-86FC-5AE122B71E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31941800-5777-4E88-9466-A75EC567E317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Term</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>https://youtu.be/VJdnjrAAO-4</t>
+  </si>
+  <si>
+    <t>Severe Bilateral Hydronephrosis</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iPGqKJn8NPs</t>
   </si>
 </sst>
 </file>
@@ -608,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.21875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -749,16 +755,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,13 +772,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,13 +786,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,13 +800,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -822,13 +828,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,13 +842,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,13 +856,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,27 +870,27 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -892,13 +898,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,13 +912,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,13 +926,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,49 +940,49 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,13 +990,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -998,13 +1004,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1012,27 +1018,27 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,51 +1046,65 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D25" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D30" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D27" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D19" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D26" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D20" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D31" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D28" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D28" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D20" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D32" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D29" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D32" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D33" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D29" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31941800-5777-4E88-9466-A75EC567E317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661E7BE-6AD6-4DAD-9E4C-FBBC38E25DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Term</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>https://youtu.be/iPGqKJn8NPs</t>
+  </si>
+  <si>
+    <t>Appendiceal Mucocele</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kdZO1IPuOIw</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +658,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,6 +1117,7 @@
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
     <hyperlink ref="D30" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661E7BE-6AD6-4DAD-9E4C-FBBC38E25DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC61DA-7445-45BE-AF1E-60763AAE89EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>Term</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>https://youtu.be/kdZO1IPuOIw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenoma (Primary hyperparathyroidism) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parathyroid </t>
+  </si>
+  <si>
+    <t>https://youtu.be/S45odD2wQOQ</t>
   </si>
 </sst>
 </file>
@@ -620,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,6 +1102,20 @@
       </c>
       <c r="D33" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1118,6 +1141,7 @@
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
     <hyperlink ref="D30" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
+    <hyperlink ref="D34" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC61DA-7445-45BE-AF1E-60763AAE89EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78F868-340F-4685-9F26-24EFF471C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Bowel</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
     <t>Lymph nodes</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>https://youtu.be/S45odD2wQOQ</t>
+  </si>
+  <si>
+    <t>Adrenal gland</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,13 +667,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,13 +681,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,69 +723,69 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,13 +793,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,13 +821,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -849,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,105 +905,105 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +1025,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,13 +1053,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,41 +1081,41 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C78F868-340F-4685-9F26-24EFF471C687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CF595-939A-43A4-9F72-DB4FF8C823A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>Term</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Adrenal gland</t>
+  </si>
+  <si>
+    <t>Hepatocellular Carcinoma with Intra-lesional Air (Superinfected HCC)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4V95TgIMrbE</t>
   </si>
 </sst>
 </file>
@@ -629,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,16 +922,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,13 +939,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,13 +953,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,13 +967,13 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,49 +981,49 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +1031,13 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +1045,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,27 +1059,27 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,67 +1087,81 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D31" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D28" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D14" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D32" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D29" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D30" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D16" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D33" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D34" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D30" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D31" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D34" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D35" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CF595-939A-43A4-9F72-DB4FF8C823A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A0073-778F-41F2-9C86-1CC6102017C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Term</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>https://youtu.be/4V95TgIMrbE</t>
+  </si>
+  <si>
+    <t>Umbilical Vein - Complete Recanalization</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ytNgK7wuL_M</t>
   </si>
 </sst>
 </file>
@@ -635,17 +641,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.21875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -953,13 +959,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,13 +973,13 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,13 +987,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,38 +1012,38 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,13 +1051,13 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,13 +1065,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,27 +1079,27 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,67 +1107,81 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="A2:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D27" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D28" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D29" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D21" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D29" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D14" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D30" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D34" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D16" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D34" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D35" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D31" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D32" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D35" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A0073-778F-41F2-9C86-1CC6102017C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F1B33-FEF4-45AE-836D-AFF46C98C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
   <si>
     <t>Term</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>https://youtu.be/ytNgK7wuL_M</t>
+  </si>
+  <si>
+    <t>Gallstone (Large) + Adenomyoma</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mnDuOgdSpLA</t>
   </si>
 </sst>
 </file>
@@ -641,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,30 +752,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -777,13 +783,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,27 +797,27 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,13 +839,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,13 +853,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,13 +867,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -875,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -889,13 +895,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -903,13 +909,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -917,41 +923,41 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>89</v>
+      <c r="B20" t="s">
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,10 +968,10 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +979,13 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +993,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +1007,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,49 +1021,49 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,13 +1085,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1093,27 +1099,27 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,67 +1127,82 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D33" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D30" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D21" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D29" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D34" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D31" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D35" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D29" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D34" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D31" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D30" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D35" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D36" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D32" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D33" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D36" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D37" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F1B33-FEF4-45AE-836D-AFF46C98C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D99D15-78CD-4A14-A4B7-C025C289551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>Term</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>https://youtu.be/mnDuOgdSpLA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aoaF345dsKc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pancreatic Adenocarcinoma (Head/Uncinate) </t>
   </si>
 </sst>
 </file>
@@ -647,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,16 +1130,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,68 +1147,84 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
     <hyperlink ref="D29" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
     <hyperlink ref="D12" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D34" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D35" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
     <hyperlink ref="D31" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
     <hyperlink ref="D22" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
     <hyperlink ref="D30" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
     <hyperlink ref="D24" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
     <hyperlink ref="D15" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D35" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D36" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
     <hyperlink ref="D32" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D17" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D36" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D37" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
     <hyperlink ref="D33" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D37" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D38" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
     <hyperlink ref="D27" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
+    <hyperlink ref="D7" r:id="rId21" xr:uid="{950E2CE8-CA77-4718-85CE-B5E179D10051}"/>
+    <hyperlink ref="D34" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D99D15-78CD-4A14-A4B7-C025C289551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0E318-AA06-4399-88DA-83E7A13E273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>Term</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pancreatic Adenocarcinoma (Head/Uncinate) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splenic Artery Aneurysm </t>
+  </si>
+  <si>
+    <t>https://youtu.be/nKZNmbVAutI</t>
   </si>
 </sst>
 </file>
@@ -653,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,29 +1178,43 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1216,15 +1236,16 @@
     <hyperlink ref="D32" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
     <hyperlink ref="D17" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D37" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D38" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
     <hyperlink ref="D33" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D38" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D39" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
     <hyperlink ref="D27" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
     <hyperlink ref="D7" r:id="rId21" xr:uid="{950E2CE8-CA77-4718-85CE-B5E179D10051}"/>
     <hyperlink ref="D34" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
+    <hyperlink ref="D37" r:id="rId23" xr:uid="{5D8D74B8-F859-4923-9653-4696DD07CCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0E318-AA06-4399-88DA-83E7A13E273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB5889-48AD-45B3-995B-AE3D0FB5EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
   <si>
     <t>Term</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>https://youtu.be/nKZNmbVAutI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renal Angiomyolipomas </t>
+  </si>
+  <si>
+    <t>https://youtu.be/b5oGdfLmcIA</t>
   </si>
 </sst>
 </file>
@@ -659,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,16 +840,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,13 +857,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -865,13 +871,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,13 +885,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,13 +899,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -935,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,41 +955,41 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+      <c r="B21" t="s">
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,10 +1000,10 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,13 +1011,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,13 +1025,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,13 +1039,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,49 +1053,49 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,13 +1103,13 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,13 +1117,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,13 +1131,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,27 +1145,27 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,71 +1187,86 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
-    <sortCondition ref="A2:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D29" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D35" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D31" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D30" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D24" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D36" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D32" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D30" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D36" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D32" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D37" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D33" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D38" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D39" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
     <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D33" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D39" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
-    <hyperlink ref="D27" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
+    <hyperlink ref="D40" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D28" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
     <hyperlink ref="D7" r:id="rId21" xr:uid="{950E2CE8-CA77-4718-85CE-B5E179D10051}"/>
-    <hyperlink ref="D34" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
-    <hyperlink ref="D37" r:id="rId23" xr:uid="{5D8D74B8-F859-4923-9653-4696DD07CCCA}"/>
+    <hyperlink ref="D35" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
+    <hyperlink ref="D38" r:id="rId23" xr:uid="{5D8D74B8-F859-4923-9653-4696DD07CCCA}"/>
+    <hyperlink ref="D12" r:id="rId24" xr:uid="{5D2C6A40-213E-437F-8219-C75DD1152046}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB5889-48AD-45B3-995B-AE3D0FB5EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC8400-F911-4A71-BE0D-3B38E2D7743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>Term</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>https://youtu.be/b5oGdfLmcIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Mesenteric Artery (SMA) Syndrome </t>
+  </si>
+  <si>
+    <t>https://youtu.be/Jwjqn1j32FY</t>
   </si>
 </sst>
 </file>
@@ -665,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,16 +720,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,13 +751,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -759,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -773,41 +779,41 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,13 +821,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -829,13 +835,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -843,27 +849,27 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -885,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -899,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,13 +919,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,13 +933,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,13 +961,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,41 +975,41 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
+      <c r="B22" t="s">
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +1031,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +1045,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,13 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,49 +1073,49 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,27 +1165,27 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,13 +1193,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,72 +1207,87 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
-    <sortCondition ref="A2:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
-    <hyperlink ref="D30" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
-    <hyperlink ref="D36" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
-    <hyperlink ref="D32" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
-    <hyperlink ref="D23" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
-    <hyperlink ref="D31" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
-    <hyperlink ref="D25" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
-    <hyperlink ref="D37" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
-    <hyperlink ref="D33" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
-    <hyperlink ref="D39" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
-    <hyperlink ref="D5" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
-    <hyperlink ref="D3" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
-    <hyperlink ref="D34" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{9D6B17AE-04EE-4350-A999-CB1B18813B8C}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{FF4F3EC9-5254-4A3C-8F0A-334CA8AED12A}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{5218EEF5-4AF3-4CD7-9F2B-5C95386BB30F}"/>
+    <hyperlink ref="D37" r:id="rId4" xr:uid="{3872027C-37FB-42D1-B676-6D4FCE37E74C}"/>
+    <hyperlink ref="D33" r:id="rId5" xr:uid="{56F5E9CD-04A6-4D7E-92FF-ADBA74D5FAE1}"/>
+    <hyperlink ref="D24" r:id="rId6" xr:uid="{A477DC1A-6E55-4652-A4B7-FA1FCF78E510}"/>
+    <hyperlink ref="D32" r:id="rId7" xr:uid="{0314C88F-1527-4D05-AE52-F4C6A7C2A550}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{77275B93-2F75-42CD-8E0F-587DE257A37E}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{27925F88-687C-4D84-94F8-44878BCE09D7}"/>
+    <hyperlink ref="D38" r:id="rId10" xr:uid="{FDC4E4E6-6C7E-49CC-A553-2EAC57CBEBAD}"/>
+    <hyperlink ref="D34" r:id="rId11" xr:uid="{B75AD551-422C-4496-9E1B-803AC99F34CF}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{97BC6B6D-370E-4F6C-8289-D5897DCC5FED}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{ED4C67FA-EF38-4CF2-A6BD-8CF4F0DC292C}"/>
+    <hyperlink ref="D40" r:id="rId14" xr:uid="{CF5C984D-190D-4B2D-8E12-40025C537D92}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{C5B99281-7416-4E9B-B377-6396183573EA}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{7F8E3C51-1BD6-4226-A12A-C4A0A844B92F}"/>
+    <hyperlink ref="D35" r:id="rId17" xr:uid="{4ECD753D-F126-4938-B3C3-7376592170F0}"/>
     <hyperlink ref="D2" r:id="rId18" xr:uid="{FDE69110-5CED-43D8-88A8-A1909726983A}"/>
-    <hyperlink ref="D40" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
-    <hyperlink ref="D28" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
-    <hyperlink ref="D7" r:id="rId21" xr:uid="{950E2CE8-CA77-4718-85CE-B5E179D10051}"/>
-    <hyperlink ref="D35" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
-    <hyperlink ref="D38" r:id="rId23" xr:uid="{5D8D74B8-F859-4923-9653-4696DD07CCCA}"/>
-    <hyperlink ref="D12" r:id="rId24" xr:uid="{5D2C6A40-213E-437F-8219-C75DD1152046}"/>
+    <hyperlink ref="D41" r:id="rId19" xr:uid="{848186BE-B244-443B-9D0A-AA243E481347}"/>
+    <hyperlink ref="D29" r:id="rId20" xr:uid="{2B191E26-3345-4509-BA82-AF0447DE4173}"/>
+    <hyperlink ref="D8" r:id="rId21" xr:uid="{950E2CE8-CA77-4718-85CE-B5E179D10051}"/>
+    <hyperlink ref="D36" r:id="rId22" xr:uid="{BD8D2574-9DE8-4245-863E-1A6206F54FC0}"/>
+    <hyperlink ref="D39" r:id="rId23" xr:uid="{5D8D74B8-F859-4923-9653-4696DD07CCCA}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{5D2C6A40-213E-437F-8219-C75DD1152046}"/>
+    <hyperlink ref="D3" r:id="rId25" xr:uid="{6253A1F5-1EBA-465A-AB4E-1BC9C10EA862}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SonoVerse.xlsx
+++ b/SonoVerse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\sonoverse-vug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC8400-F911-4A71-BE0D-3B38E2D7743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F35B755-FC1B-4A4A-B50D-4207679E0C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
